--- a/RMI/RMI/media/Reporte/Eventos_Abril_-_Ohmen.xlsx
+++ b/RMI/RMI/media/Reporte/Eventos_Abril_-_Ohmen.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesu\Desktop\Instructor Líder - Area Actividad Fisica - Deporte\8. Eventos Adicionales - Grupo de Instructores del Area\2. Eventos 2017 - Líder\Eventos sofia plus - 2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Abril" sheetId="2" r:id="rId1"/>
@@ -27,9 +22,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jesu</author>
+    <author>MARTIN</author>
   </authors>
   <commentList>
-    <comment ref="Y27" authorId="0" shapeId="0">
+    <comment ref="Y27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y28" authorId="0" shapeId="0">
+    <comment ref="Y28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,12 +73,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="U35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Evento Compartido con Martín Dorado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jesu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Evento Compartido con Martín Dorado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X58" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARTIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El color amarillo representa horario compartido con el instructor David Barajas de lunes  a viernes en la ficha 1167021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y61" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MARTIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DE ESTE DIA SOLO SON 4 HORAS</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -209,9 +301,6 @@
     <t>fmunoz@sena.edu.co</t>
   </si>
   <si>
-    <t>elaborar la estructuracion de un club deportivo , escuela de formacion</t>
-  </si>
-  <si>
     <t>ELABORAR PLANES ESRITOS Y GRAFICOS DE LA PLANIFICACION DEPORTIVA DEPORTES CICLICOS Y ACICLICOS</t>
   </si>
   <si>
@@ -285,15 +374,6 @@
   </si>
   <si>
     <t>13PM/19PM13P</t>
-  </si>
-  <si>
-    <t>15PM/19PM</t>
-  </si>
-  <si>
-    <t>7AM/11PM</t>
-  </si>
-  <si>
-    <t>7AM /11PM</t>
   </si>
   <si>
     <t xml:space="preserve">FAUSTO DAVID FRANCO G.
@@ -319,12 +399,60 @@
   <si>
     <t>TOTAL HORAS OTRAS ACTIVIDADES</t>
   </si>
+  <si>
+    <t>8am  /12 :30</t>
+  </si>
+  <si>
+    <t>8:a. m./12:30pm</t>
+  </si>
+  <si>
+    <t>8AM /12:30PM</t>
+  </si>
+  <si>
+    <t>8AM/12:30PM</t>
+  </si>
+  <si>
+    <t>14:00pm /15:00pm</t>
+  </si>
+  <si>
+    <t>8AM/12:00PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REALIZAR SEGUIMIENTOS A APRENDICES QUE ESTAN PENDIENTES DE CERTIFICARCE </t>
+  </si>
+  <si>
+    <t>ACADÉMICA</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTOS ETAPA PRACTICA                                                                                                                                                       2 seguimientos</t>
+  </si>
+  <si>
+    <t>FECHAS PROGRAMADAS</t>
+  </si>
+  <si>
+    <t>08:00 a 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDAIR ALEXANDER CATUCHE CHILITO
+ANDRES FELIPE MUÑOZ LOPEZ
+CRISTIAN STIVEN MUÑOZ ALVARADO
+DANNY FABIAN FERNANDEZ ORDOÑEZ
+DIANA SOFIA SANTIAGO AVILA
+ESTEBAN RENE ORDOÑEZ BOLAÑOS
+FABIAN ALEXIS CERON BURBANO
+JAMES SALAZAR HURTADO
+JOSE RODOLFO SANCHEZ SANCHEZ
+JULIAN ALEJANDRO MUÑOZ MOSQUERA
+JULIAN ANDRES ZUÑIGA BAOS
+KAROLINA ARTURO SOTELO
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -586,8 +714,35 @@
       <name val="Berlin Sans FB Demi"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,8 +869,32 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF548DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF548DD4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="89">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -1348,37 +1527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1397,8 +1545,419 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1409,19 +1968,8 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -1430,12 +1978,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1449,17 +2046,101 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -1467,339 +2148,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1813,7 +2168,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1970,26 +2325,11 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2032,16 +2372,34 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2053,77 +2411,323 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="43" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2177,6 +2781,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="27" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2217,7 +2826,6 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2255,12 +2863,36 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="35" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,6 +2908,149 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="35" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="35" fillId="24" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,7 +3074,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,7 +3092,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2360,344 +3135,78 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="35" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="35" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2735,7 +3244,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2882,7 +3391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2917,7 +3426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3126,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL54"/>
+  <dimension ref="A2:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="N34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44:AA48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3658,7 @@
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" customWidth="1"/>
     <col min="20" max="25" width="10" customWidth="1"/>
@@ -3160,35 +3669,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="195" t="s">
+      <c r="B2" s="341"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="196"/>
-      <c r="O2" s="196"/>
-      <c r="P2" s="196"/>
-      <c r="Q2" s="196"/>
-      <c r="R2" s="196"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
+      <c r="J2" s="348"/>
+      <c r="K2" s="348"/>
+      <c r="L2" s="348"/>
+      <c r="M2" s="348"/>
+      <c r="N2" s="348"/>
+      <c r="O2" s="348"/>
+      <c r="P2" s="348"/>
+      <c r="Q2" s="348"/>
+      <c r="R2" s="348"/>
+      <c r="S2" s="348"/>
+      <c r="T2" s="348"/>
+      <c r="U2" s="348"/>
+      <c r="V2" s="348"/>
+      <c r="W2" s="348"/>
+      <c r="X2" s="348"/>
+      <c r="Y2" s="348"/>
       <c r="Z2" s="27"/>
       <c r="AA2" s="28"/>
       <c r="AB2" s="1"/>
@@ -3204,39 +3713,39 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="180" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="162" t="s">
+      <c r="A3" s="248"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="332" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="333"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="125" t="s">
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125" t="s">
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="125"/>
+      <c r="Y3" s="216"/>
       <c r="Z3" s="27"/>
       <c r="AA3" s="27"/>
       <c r="AB3" s="2"/>
@@ -3252,37 +3761,37 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="193"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="132" t="s">
+      <c r="A4" s="248"/>
+      <c r="B4" s="345"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="126" t="s">
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="217" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="135">
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="218"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="229">
         <v>42832</v>
       </c>
-      <c r="Y4" s="136"/>
+      <c r="Y4" s="230"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="27"/>
       <c r="AB4" s="2"/>
@@ -3298,37 +3807,37 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155"/>
-      <c r="B5" s="174" t="s">
+      <c r="A5" s="248"/>
+      <c r="B5" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="162" t="s">
+      <c r="C5" s="327"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="129" t="s">
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="256"/>
+      <c r="L5" s="256"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="257"/>
+      <c r="P5" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="138"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="222"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="232"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
       <c r="AB5" s="2"/>
@@ -3344,35 +3853,35 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="132">
+      <c r="A6" s="248"/>
+      <c r="B6" s="328"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="335"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="223">
         <v>1061694112</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="132">
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="223">
         <v>3186748220</v>
       </c>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="139"/>
-      <c r="Y6" s="140"/>
+      <c r="Q6" s="224"/>
+      <c r="R6" s="224"/>
+      <c r="S6" s="224"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="224"/>
+      <c r="V6" s="224"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="233"/>
+      <c r="Y6" s="234"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="2"/>
@@ -3388,31 +3897,31 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="155"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="199"/>
+      <c r="A7" s="248"/>
+      <c r="B7" s="330"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="349"/>
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="350"/>
+      <c r="P7" s="350"/>
+      <c r="Q7" s="350"/>
+      <c r="R7" s="350"/>
+      <c r="S7" s="350"/>
+      <c r="T7" s="350"/>
+      <c r="U7" s="350"/>
+      <c r="V7" s="350"/>
+      <c r="W7" s="350"/>
+      <c r="X7" s="350"/>
+      <c r="Y7" s="351"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="1"/>
@@ -3443,15 +3952,15 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="238"/>
+      <c r="R8" s="238"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="238"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="27"/>
       <c r="AA8" s="27"/>
@@ -3468,35 +3977,35 @@
       <c r="AL8" s="1"/>
     </row>
     <row r="9" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="118"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="240"/>
+      <c r="O9" s="240"/>
+      <c r="P9" s="240"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="240"/>
+      <c r="S9" s="240"/>
+      <c r="T9" s="240"/>
+      <c r="U9" s="240"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="240"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="209"/>
+      <c r="AA9" s="209"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -3510,61 +4019,61 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="352" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="168" t="s">
+      <c r="G10" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="156" t="s">
+      <c r="H10" s="270"/>
+      <c r="I10" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
+      <c r="J10" s="250"/>
+      <c r="K10" s="250"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="250"/>
+      <c r="N10" s="250"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="172" t="s">
+      <c r="P10" s="273" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="141" t="s">
+      <c r="Q10" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="141" t="s">
+      <c r="R10" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="S10" s="160" t="s">
+      <c r="S10" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="148" t="s">
+      <c r="T10" s="242" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="149"/>
-      <c r="V10" s="149"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="149"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="165" t="s">
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="243"/>
+      <c r="Z10" s="267" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" s="165"/>
+      <c r="AA10" s="267"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -3578,14 +4087,14 @@
       <c r="AL10" s="1"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="161"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171"/>
+      <c r="A11" s="252"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="271"/>
+      <c r="H11" s="272"/>
       <c r="I11" s="21" t="s">
         <v>13</v>
       </c>
@@ -3607,18 +4116,18 @@
       <c r="O11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="152"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
+      <c r="P11" s="274"/>
+      <c r="Q11" s="236"/>
+      <c r="R11" s="236"/>
+      <c r="S11" s="254"/>
+      <c r="T11" s="244"/>
+      <c r="U11" s="245"/>
+      <c r="V11" s="245"/>
+      <c r="W11" s="245"/>
+      <c r="X11" s="245"/>
+      <c r="Y11" s="246"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -3632,33 +4141,33 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="165"/>
-      <c r="AA12" s="165"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -3709,8 +4218,8 @@
       <c r="Y13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Z13" s="165"/>
-      <c r="AA13" s="165"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -3724,47 +4233,47 @@
       <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="209">
+      <c r="A14" s="197">
         <v>1094208</v>
       </c>
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="200" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="200" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="312">
+        <v>6</v>
+      </c>
+      <c r="E14" s="200" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="258">
+        <v>22</v>
+      </c>
+      <c r="H14" s="259"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="211">
+      <c r="O14" s="288"/>
+      <c r="P14" s="226" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="226">
         <v>6</v>
       </c>
-      <c r="E14" s="210" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="213">
-        <v>22</v>
-      </c>
-      <c r="H14" s="214"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="215"/>
-      <c r="P14" s="212" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="212">
+      <c r="R14" s="226">
         <v>6</v>
       </c>
-      <c r="R14" s="212">
-        <v>6</v>
-      </c>
-      <c r="S14" s="115">
+      <c r="S14" s="269">
         <v>24</v>
       </c>
       <c r="T14" s="34"/>
@@ -3772,11 +4281,11 @@
       <c r="V14" s="35"/>
       <c r="W14" s="36"/>
       <c r="X14" s="35"/>
-      <c r="Y14" s="82">
+      <c r="Y14" s="77">
         <v>1</v>
       </c>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="120"/>
+      <c r="Z14" s="210"/>
+      <c r="AA14" s="211"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -3790,25 +4299,25 @@
       <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="216"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="222"/>
-      <c r="K15" s="222"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="116"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="324"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="227"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="227"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="227"/>
+      <c r="P15" s="227"/>
+      <c r="Q15" s="227"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="286"/>
       <c r="T15" s="38">
         <v>3</v>
       </c>
@@ -3827,8 +4336,8 @@
       <c r="Y15" s="49">
         <v>8</v>
       </c>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="122"/>
+      <c r="Z15" s="212"/>
+      <c r="AA15" s="213"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -3842,25 +4351,25 @@
       <c r="AL15" s="4"/>
     </row>
     <row r="16" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="216"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
-      <c r="N16" s="222"/>
-      <c r="O16" s="222"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="116"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="313"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="324"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="227"/>
+      <c r="L16" s="227"/>
+      <c r="M16" s="227"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="227"/>
+      <c r="P16" s="227"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="286"/>
       <c r="T16" s="38">
         <v>10</v>
       </c>
@@ -3879,8 +4388,8 @@
       <c r="Y16" s="49">
         <v>15</v>
       </c>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="122"/>
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="213"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3894,25 +4403,25 @@
       <c r="AL16" s="4"/>
     </row>
     <row r="17" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="216"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="222"/>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="116"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="313"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="324"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="286"/>
       <c r="T17" s="42">
         <v>17</v>
       </c>
@@ -3931,8 +4440,8 @@
       <c r="Y17" s="49">
         <v>22</v>
       </c>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="122"/>
+      <c r="Z17" s="212"/>
+      <c r="AA17" s="213"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3946,25 +4455,25 @@
       <c r="AL17" s="4"/>
     </row>
     <row r="18" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="228"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="229"/>
-      <c r="N18" s="229"/>
-      <c r="O18" s="229"/>
-      <c r="P18" s="229"/>
-      <c r="Q18" s="229"/>
-      <c r="R18" s="229"/>
-      <c r="S18" s="116"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="314"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="325"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
+      <c r="K18" s="228"/>
+      <c r="L18" s="228"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="228"/>
+      <c r="O18" s="228"/>
+      <c r="P18" s="228"/>
+      <c r="Q18" s="228"/>
+      <c r="R18" s="228"/>
+      <c r="S18" s="286"/>
       <c r="T18" s="43">
         <v>24</v>
       </c>
@@ -3983,8 +4492,8 @@
       <c r="Y18" s="45">
         <v>29</v>
       </c>
-      <c r="Z18" s="123"/>
-      <c r="AA18" s="124"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="215"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3998,47 +4507,47 @@
       <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="209">
+      <c r="A19" s="197">
         <v>1094208</v>
       </c>
-      <c r="B19" s="210" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="210" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="211">
+      <c r="B19" s="200" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="312">
         <v>6</v>
       </c>
-      <c r="E19" s="210" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="213">
+      <c r="E19" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="226" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="258">
         <v>22</v>
       </c>
-      <c r="H19" s="230"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="231"/>
-      <c r="K19" s="231"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="231" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="231"/>
-      <c r="P19" s="233" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="233">
+      <c r="H19" s="275"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="354"/>
+      <c r="M19" s="354"/>
+      <c r="N19" s="280" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="280"/>
+      <c r="P19" s="283" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="283">
         <v>6</v>
       </c>
-      <c r="R19" s="234">
+      <c r="R19" s="357">
         <v>6</v>
       </c>
-      <c r="S19" s="116"/>
+      <c r="S19" s="286"/>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
@@ -4047,8 +4556,8 @@
       <c r="Y19" s="37">
         <v>1</v>
       </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="81"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="76"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -4062,25 +4571,25 @@
       <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="235"/>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="239"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="240"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="242"/>
-      <c r="Q20" s="242"/>
-      <c r="R20" s="243"/>
-      <c r="S20" s="116"/>
+      <c r="A20" s="315"/>
+      <c r="B20" s="317"/>
+      <c r="C20" s="317"/>
+      <c r="D20" s="319"/>
+      <c r="E20" s="317"/>
+      <c r="F20" s="317"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="277"/>
+      <c r="I20" s="281"/>
+      <c r="J20" s="281"/>
+      <c r="K20" s="281"/>
+      <c r="L20" s="355"/>
+      <c r="M20" s="355"/>
+      <c r="N20" s="281"/>
+      <c r="O20" s="281"/>
+      <c r="P20" s="284"/>
+      <c r="Q20" s="284"/>
+      <c r="R20" s="358"/>
+      <c r="S20" s="286"/>
       <c r="T20" s="38">
         <v>3</v>
       </c>
@@ -4096,11 +4605,11 @@
       <c r="X20" s="39">
         <v>7</v>
       </c>
-      <c r="Y20" s="84">
+      <c r="Y20" s="79">
         <v>8</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="81"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="76"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -4114,25 +4623,25 @@
       <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="235"/>
-      <c r="B21" s="236"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="237"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="238"/>
-      <c r="H21" s="239"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="240"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="242"/>
-      <c r="Q21" s="242"/>
-      <c r="R21" s="243"/>
-      <c r="S21" s="116"/>
+      <c r="A21" s="315"/>
+      <c r="B21" s="317"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="319"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="281"/>
+      <c r="K21" s="281"/>
+      <c r="L21" s="355"/>
+      <c r="M21" s="355"/>
+      <c r="N21" s="281"/>
+      <c r="O21" s="281"/>
+      <c r="P21" s="284"/>
+      <c r="Q21" s="284"/>
+      <c r="R21" s="358"/>
+      <c r="S21" s="286"/>
       <c r="T21" s="38">
         <v>10</v>
       </c>
@@ -4151,8 +4660,8 @@
       <c r="Y21" s="49">
         <v>15</v>
       </c>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="81"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="76"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -4166,25 +4675,25 @@
       <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="235"/>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="238"/>
-      <c r="H22" s="239"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="240"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="241"/>
-      <c r="N22" s="240"/>
-      <c r="O22" s="240"/>
-      <c r="P22" s="242"/>
-      <c r="Q22" s="242"/>
-      <c r="R22" s="243"/>
-      <c r="S22" s="116"/>
+      <c r="A22" s="315"/>
+      <c r="B22" s="317"/>
+      <c r="C22" s="317"/>
+      <c r="D22" s="319"/>
+      <c r="E22" s="317"/>
+      <c r="F22" s="317"/>
+      <c r="G22" s="276"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="281"/>
+      <c r="J22" s="281"/>
+      <c r="K22" s="281"/>
+      <c r="L22" s="355"/>
+      <c r="M22" s="355"/>
+      <c r="N22" s="281"/>
+      <c r="O22" s="281"/>
+      <c r="P22" s="284"/>
+      <c r="Q22" s="284"/>
+      <c r="R22" s="358"/>
+      <c r="S22" s="286"/>
       <c r="T22" s="42">
         <v>17</v>
       </c>
@@ -4203,8 +4712,8 @@
       <c r="Y22" s="49">
         <v>22</v>
       </c>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="81"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="76"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -4218,25 +4727,25 @@
       <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="244"/>
-      <c r="B23" s="245"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="252"/>
-      <c r="S23" s="116"/>
+      <c r="A23" s="316"/>
+      <c r="B23" s="318"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="279"/>
+      <c r="I23" s="282"/>
+      <c r="J23" s="282"/>
+      <c r="K23" s="282"/>
+      <c r="L23" s="356"/>
+      <c r="M23" s="356"/>
+      <c r="N23" s="282"/>
+      <c r="O23" s="282"/>
+      <c r="P23" s="285"/>
+      <c r="Q23" s="285"/>
+      <c r="R23" s="359"/>
+      <c r="S23" s="286"/>
       <c r="T23" s="43">
         <v>24</v>
       </c>
@@ -4255,8 +4764,8 @@
       <c r="Y23" s="45">
         <v>29</v>
       </c>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="81"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="76"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -4270,59 +4779,59 @@
       <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="209">
+      <c r="A24" s="197">
         <v>1094208</v>
       </c>
-      <c r="B24" s="210" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="210" t="s">
+      <c r="B24" s="200" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="200" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="312">
+        <v>12</v>
+      </c>
+      <c r="E24" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="211">
+      <c r="G24" s="258">
+        <v>11</v>
+      </c>
+      <c r="H24" s="275"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="280"/>
+      <c r="P24" s="283" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" s="283">
         <v>12</v>
       </c>
-      <c r="E24" s="210" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="212" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="213">
-        <v>11</v>
-      </c>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="231"/>
-      <c r="L24" s="231"/>
-      <c r="M24" s="231"/>
-      <c r="N24" s="231" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" s="231"/>
-      <c r="P24" s="253" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="253">
+      <c r="R24" s="283">
         <v>12</v>
       </c>
-      <c r="R24" s="253">
-        <v>12</v>
-      </c>
-      <c r="S24" s="116"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="97">
+      <c r="S24" s="286"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="90">
         <v>1</v>
       </c>
-      <c r="Z24" s="206" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA24" s="207"/>
+      <c r="Z24" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="192"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -4336,45 +4845,45 @@
       <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="235"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="238"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="240"/>
-      <c r="J25" s="240"/>
-      <c r="K25" s="240"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="240"/>
-      <c r="N25" s="240"/>
-      <c r="O25" s="240"/>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="242"/>
-      <c r="R25" s="242"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="98">
+      <c r="A25" s="315"/>
+      <c r="B25" s="317"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="319"/>
+      <c r="E25" s="317"/>
+      <c r="F25" s="317"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="281"/>
+      <c r="K25" s="281"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="281"/>
+      <c r="N25" s="281"/>
+      <c r="O25" s="281"/>
+      <c r="P25" s="284"/>
+      <c r="Q25" s="284"/>
+      <c r="R25" s="284"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="91">
         <v>3</v>
       </c>
-      <c r="U25" s="99">
+      <c r="U25" s="92">
         <v>4</v>
       </c>
-      <c r="V25" s="100">
+      <c r="V25" s="93">
         <v>5</v>
       </c>
-      <c r="W25" s="100">
+      <c r="W25" s="93">
         <v>6</v>
       </c>
-      <c r="X25" s="100">
+      <c r="X25" s="93">
         <v>7</v>
       </c>
-      <c r="Y25" s="101">
+      <c r="Y25" s="94">
         <v>8</v>
       </c>
-      <c r="Z25" s="208"/>
-      <c r="AA25" s="207"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="194"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -4388,45 +4897,45 @@
       <c r="AL25" s="4"/>
     </row>
     <row r="26" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="235"/>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="237"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="240"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="240"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="98">
+      <c r="A26" s="315"/>
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="276"/>
+      <c r="H26" s="277"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="281"/>
+      <c r="K26" s="281"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="281"/>
+      <c r="N26" s="281"/>
+      <c r="O26" s="281"/>
+      <c r="P26" s="284"/>
+      <c r="Q26" s="284"/>
+      <c r="R26" s="284"/>
+      <c r="S26" s="286"/>
+      <c r="T26" s="91">
         <v>10</v>
       </c>
-      <c r="U26" s="99">
+      <c r="U26" s="92">
         <v>11</v>
       </c>
-      <c r="V26" s="100">
+      <c r="V26" s="93">
         <v>12</v>
       </c>
-      <c r="W26" s="100">
+      <c r="W26" s="93">
         <v>13</v>
       </c>
-      <c r="X26" s="100">
+      <c r="X26" s="93">
         <v>14</v>
       </c>
-      <c r="Y26" s="101">
+      <c r="Y26" s="94">
         <v>15</v>
       </c>
-      <c r="Z26" s="208"/>
-      <c r="AA26" s="207"/>
+      <c r="Z26" s="193"/>
+      <c r="AA26" s="194"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -4440,45 +4949,45 @@
       <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="235"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="238"/>
-      <c r="H27" s="239"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
-      <c r="N27" s="240"/>
-      <c r="O27" s="240"/>
-      <c r="P27" s="242"/>
-      <c r="Q27" s="242"/>
-      <c r="R27" s="242"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="98">
+      <c r="A27" s="315"/>
+      <c r="B27" s="317"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="319"/>
+      <c r="E27" s="317"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="276"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="284"/>
+      <c r="Q27" s="284"/>
+      <c r="R27" s="284"/>
+      <c r="S27" s="286"/>
+      <c r="T27" s="91">
         <v>17</v>
       </c>
-      <c r="U27" s="99">
+      <c r="U27" s="92">
         <v>18</v>
       </c>
-      <c r="V27" s="100">
+      <c r="V27" s="93">
         <v>19</v>
       </c>
-      <c r="W27" s="100">
+      <c r="W27" s="93">
         <v>20</v>
       </c>
-      <c r="X27" s="100">
+      <c r="X27" s="93">
         <v>21</v>
       </c>
-      <c r="Y27" s="102">
+      <c r="Y27" s="95">
         <v>22</v>
       </c>
-      <c r="Z27" s="208"/>
-      <c r="AA27" s="207"/>
+      <c r="Z27" s="193"/>
+      <c r="AA27" s="194"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -4492,45 +5001,45 @@
       <c r="AL27" s="4"/>
     </row>
     <row r="28" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="244"/>
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="248"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="254"/>
-      <c r="K28" s="254"/>
-      <c r="L28" s="254"/>
-      <c r="M28" s="254"/>
-      <c r="N28" s="254"/>
-      <c r="O28" s="254"/>
-      <c r="P28" s="251"/>
-      <c r="Q28" s="251"/>
-      <c r="R28" s="251"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="90">
+      <c r="A28" s="316"/>
+      <c r="B28" s="318"/>
+      <c r="C28" s="318"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="318"/>
+      <c r="F28" s="318"/>
+      <c r="G28" s="278"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
+      <c r="K28" s="282"/>
+      <c r="L28" s="282"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="282"/>
+      <c r="O28" s="282"/>
+      <c r="P28" s="285"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="285"/>
+      <c r="S28" s="287"/>
+      <c r="T28" s="131">
         <v>24</v>
       </c>
-      <c r="U28" s="91">
+      <c r="U28" s="83">
         <v>25</v>
       </c>
-      <c r="V28" s="92">
+      <c r="V28" s="84">
         <v>26</v>
       </c>
-      <c r="W28" s="92">
+      <c r="W28" s="84">
         <v>27</v>
       </c>
-      <c r="X28" s="92">
+      <c r="X28" s="84">
         <v>28</v>
       </c>
-      <c r="Y28" s="93">
+      <c r="Y28" s="132">
         <v>29</v>
       </c>
-      <c r="Z28" s="208"/>
-      <c r="AA28" s="207"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="196"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -4544,67 +5053,65 @@
       <c r="AL28" s="4"/>
     </row>
     <row r="29" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="255">
+      <c r="A29" s="370">
         <v>1094200</v>
       </c>
-      <c r="B29" s="256" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="256" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="257">
-        <v>42</v>
-      </c>
-      <c r="E29" s="256" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="256" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="258">
+      <c r="B29" s="371" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="371" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="372">
+        <v>30</v>
+      </c>
+      <c r="E29" s="371" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="371" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="291">
         <v>23</v>
       </c>
-      <c r="H29" s="259"/>
-      <c r="I29" s="260" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="262" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q29" s="262">
-        <v>42</v>
-      </c>
-      <c r="R29" s="262">
-        <v>42</v>
-      </c>
-      <c r="S29" s="202">
+      <c r="H29" s="292"/>
+      <c r="I29" s="364" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="361"/>
+      <c r="K29" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="361"/>
+      <c r="O29" s="361"/>
+      <c r="P29" s="380" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="380">
+        <v>30</v>
+      </c>
+      <c r="R29" s="380">
+        <v>30</v>
+      </c>
+      <c r="S29" s="188">
         <v>108</v>
       </c>
-      <c r="T29" s="107"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="103">
+      <c r="T29" s="122"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="97">
         <v>1</v>
       </c>
-      <c r="Z29" s="208"/>
-      <c r="AA29" s="207"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="129"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -4618,45 +5125,45 @@
       <c r="AL29" s="4"/>
     </row>
     <row r="30" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="263"/>
-      <c r="B30" s="264"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
-      <c r="E30" s="264"/>
-      <c r="F30" s="264"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="261"/>
-      <c r="K30" s="261"/>
-      <c r="L30" s="261"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="268"/>
-      <c r="Q30" s="268"/>
-      <c r="R30" s="268"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="286">
+      <c r="A30" s="203"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="291"/>
+      <c r="H30" s="292"/>
+      <c r="I30" s="364"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="361"/>
+      <c r="L30" s="361"/>
+      <c r="M30" s="361"/>
+      <c r="N30" s="361"/>
+      <c r="O30" s="361"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="186"/>
+      <c r="S30" s="189"/>
+      <c r="T30" s="128">
         <v>3</v>
       </c>
-      <c r="U30" s="287">
+      <c r="U30" s="92">
         <v>4</v>
       </c>
-      <c r="V30" s="290">
+      <c r="V30" s="113">
         <v>5</v>
       </c>
-      <c r="W30" s="290">
+      <c r="W30" s="113">
         <v>6</v>
       </c>
-      <c r="X30" s="290">
+      <c r="X30" s="113">
         <v>7</v>
       </c>
-      <c r="Y30" s="104">
+      <c r="Y30" s="96">
         <v>8</v>
       </c>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="83"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="78"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4670,45 +5177,45 @@
       <c r="AL30" s="4"/>
     </row>
     <row r="31" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="263"/>
-      <c r="B31" s="264"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="265"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="260"/>
-      <c r="J31" s="261"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="261"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="268"/>
-      <c r="Q31" s="268"/>
-      <c r="R31" s="268"/>
-      <c r="S31" s="203"/>
-      <c r="T31" s="288">
+      <c r="A31" s="203"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="291"/>
+      <c r="H31" s="292"/>
+      <c r="I31" s="364"/>
+      <c r="J31" s="361"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="361"/>
+      <c r="M31" s="361"/>
+      <c r="N31" s="361"/>
+      <c r="O31" s="361"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="189"/>
+      <c r="T31" s="112">
         <v>10</v>
       </c>
-      <c r="U31" s="289">
+      <c r="U31" s="85">
         <v>11</v>
       </c>
-      <c r="V31" s="92">
+      <c r="V31" s="86">
         <v>12</v>
       </c>
-      <c r="W31" s="92">
+      <c r="W31" s="86">
         <v>13</v>
       </c>
-      <c r="X31" s="92">
+      <c r="X31" s="86">
         <v>14</v>
       </c>
-      <c r="Y31" s="105">
+      <c r="Y31" s="97">
         <v>15</v>
       </c>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="83"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="78"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4722,45 +5229,45 @@
       <c r="AL31" s="4"/>
     </row>
     <row r="32" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="263"/>
-      <c r="B32" s="264"/>
-      <c r="C32" s="264"/>
-      <c r="D32" s="265"/>
-      <c r="E32" s="264"/>
-      <c r="F32" s="264"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="267"/>
-      <c r="I32" s="260"/>
-      <c r="J32" s="261"/>
-      <c r="K32" s="261"/>
-      <c r="L32" s="261"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="268"/>
-      <c r="S32" s="203"/>
-      <c r="T32" s="107">
+      <c r="A32" s="203"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="291"/>
+      <c r="H32" s="292"/>
+      <c r="I32" s="364"/>
+      <c r="J32" s="361"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="361"/>
+      <c r="M32" s="361"/>
+      <c r="N32" s="361"/>
+      <c r="O32" s="361"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="186"/>
+      <c r="S32" s="189"/>
+      <c r="T32" s="99">
         <v>17</v>
       </c>
-      <c r="U32" s="99">
+      <c r="U32" s="92">
         <v>18</v>
       </c>
-      <c r="V32" s="100">
+      <c r="V32" s="93">
         <v>19</v>
       </c>
-      <c r="W32" s="100">
+      <c r="W32" s="93">
         <v>29</v>
       </c>
-      <c r="X32" s="100">
+      <c r="X32" s="93">
         <v>21</v>
       </c>
-      <c r="Y32" s="103">
+      <c r="Y32" s="96">
         <v>22</v>
       </c>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="83"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="78"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4774,45 +5281,45 @@
       <c r="AL32" s="4"/>
     </row>
     <row r="33" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="269"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="274"/>
-      <c r="J33" s="275"/>
-      <c r="K33" s="275"/>
-      <c r="L33" s="275"/>
-      <c r="M33" s="275"/>
-      <c r="N33" s="275"/>
-      <c r="O33" s="275"/>
-      <c r="P33" s="276"/>
-      <c r="Q33" s="276"/>
-      <c r="R33" s="276"/>
-      <c r="S33" s="203"/>
-      <c r="T33" s="108">
+      <c r="A33" s="204"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="365"/>
+      <c r="J33" s="362"/>
+      <c r="K33" s="362"/>
+      <c r="L33" s="362"/>
+      <c r="M33" s="362"/>
+      <c r="N33" s="362"/>
+      <c r="O33" s="362"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="187"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="189"/>
+      <c r="T33" s="100">
         <v>24</v>
       </c>
-      <c r="U33" s="88">
+      <c r="U33" s="83">
         <v>25</v>
       </c>
-      <c r="V33" s="89">
+      <c r="V33" s="84">
         <v>26</v>
       </c>
-      <c r="W33" s="89">
+      <c r="W33" s="84">
         <v>27</v>
       </c>
-      <c r="X33" s="89">
+      <c r="X33" s="84">
         <v>28</v>
       </c>
-      <c r="Y33" s="106">
+      <c r="Y33" s="98">
         <v>29</v>
       </c>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="83"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="78"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4825,66 +5332,60 @@
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
     </row>
-    <row r="34" spans="1:38" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="255">
+    <row r="34" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="203">
         <v>1094200</v>
       </c>
-      <c r="B34" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="256" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="257">
-        <v>36</v>
-      </c>
-      <c r="E34" s="256" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="256" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="266">
-        <v>23</v>
-      </c>
-      <c r="H34" s="267"/>
-      <c r="I34" s="277" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="277" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="277" t="s">
-        <v>50</v>
-      </c>
-      <c r="L34" s="277" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="N34" s="277"/>
-      <c r="O34" s="277"/>
-      <c r="P34" s="262" t="s">
+      <c r="B34" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="Q34" s="262">
-        <v>36</v>
-      </c>
-      <c r="R34" s="262">
-        <v>36</v>
-      </c>
-      <c r="S34" s="204"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="110">
+      <c r="C34" s="205" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="207">
+        <v>12</v>
+      </c>
+      <c r="E34" s="205" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="205" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="289">
+        <v>12</v>
+      </c>
+      <c r="H34" s="290"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="363" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="185" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" s="185">
+        <v>12</v>
+      </c>
+      <c r="R34" s="185">
+        <v>12</v>
+      </c>
+      <c r="S34" s="189"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="96">
         <v>1</v>
       </c>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="81"/>
+      <c r="Z34" s="191" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA34" s="192"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -4898,45 +5399,45 @@
       <c r="AL34" s="4"/>
     </row>
     <row r="35" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="263"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="267"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
-      <c r="P35" s="268"/>
-      <c r="Q35" s="268"/>
-      <c r="R35" s="268"/>
-      <c r="S35" s="204"/>
-      <c r="T35" s="111">
+      <c r="A35" s="203"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="291"/>
+      <c r="H35" s="292"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="364"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="189"/>
+      <c r="T35" s="99">
         <v>3</v>
       </c>
-      <c r="U35" s="99">
+      <c r="U35" s="127">
         <v>4</v>
       </c>
-      <c r="V35" s="100">
+      <c r="V35" s="93">
         <v>5</v>
       </c>
-      <c r="W35" s="100">
+      <c r="W35" s="93">
         <v>6</v>
       </c>
-      <c r="X35" s="100">
+      <c r="X35" s="93">
         <v>7</v>
       </c>
-      <c r="Y35" s="112">
+      <c r="Y35" s="96">
         <v>8</v>
       </c>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="81"/>
+      <c r="Z35" s="193"/>
+      <c r="AA35" s="194"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -4950,45 +5451,45 @@
       <c r="AL35" s="4"/>
     </row>
     <row r="36" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="263"/>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="265"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="266"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="261"/>
-      <c r="J36" s="261"/>
-      <c r="K36" s="261"/>
-      <c r="L36" s="261"/>
-      <c r="M36" s="261"/>
-      <c r="N36" s="261"/>
-      <c r="O36" s="261"/>
-      <c r="P36" s="268"/>
-      <c r="Q36" s="268"/>
-      <c r="R36" s="268"/>
-      <c r="S36" s="204"/>
-      <c r="T36" s="111">
+      <c r="A36" s="203"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="291"/>
+      <c r="H36" s="292"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="364"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="S36" s="189"/>
+      <c r="T36" s="122">
         <v>10</v>
       </c>
-      <c r="U36" s="99">
+      <c r="U36" s="126">
         <v>11</v>
       </c>
-      <c r="V36" s="291">
+      <c r="V36" s="86">
         <v>12</v>
       </c>
-      <c r="W36" s="100">
+      <c r="W36" s="86">
         <v>13</v>
       </c>
-      <c r="X36" s="100">
+      <c r="X36" s="86">
         <v>14</v>
       </c>
-      <c r="Y36" s="112">
+      <c r="Y36" s="97">
         <v>15</v>
       </c>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="81"/>
+      <c r="Z36" s="193"/>
+      <c r="AA36" s="194"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -5002,45 +5503,45 @@
       <c r="AL36" s="4"/>
     </row>
     <row r="37" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="263"/>
-      <c r="B37" s="264"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
-      <c r="E37" s="264"/>
-      <c r="F37" s="264"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="267"/>
-      <c r="I37" s="261"/>
-      <c r="J37" s="261"/>
-      <c r="K37" s="261"/>
-      <c r="L37" s="261"/>
-      <c r="M37" s="261"/>
-      <c r="N37" s="261"/>
-      <c r="O37" s="261"/>
-      <c r="P37" s="268"/>
-      <c r="Q37" s="268"/>
-      <c r="R37" s="268"/>
-      <c r="S37" s="204"/>
-      <c r="T37" s="292">
+      <c r="A37" s="203"/>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="291"/>
+      <c r="H37" s="292"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="189"/>
+      <c r="T37" s="99">
         <v>17</v>
       </c>
-      <c r="U37" s="293">
+      <c r="U37" s="92">
         <v>18</v>
       </c>
-      <c r="V37" s="291">
+      <c r="V37" s="93">
         <v>19</v>
       </c>
-      <c r="W37" s="291">
-        <v>20</v>
-      </c>
-      <c r="X37" s="291">
+      <c r="W37" s="93">
+        <v>29</v>
+      </c>
+      <c r="X37" s="93">
         <v>21</v>
       </c>
-      <c r="Y37" s="112">
+      <c r="Y37" s="96">
         <v>22</v>
       </c>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="81"/>
+      <c r="Z37" s="193"/>
+      <c r="AA37" s="194"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
@@ -5054,45 +5555,45 @@
       <c r="AL37" s="4"/>
     </row>
     <row r="38" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="278"/>
-      <c r="B38" s="279"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="280"/>
-      <c r="E38" s="279"/>
-      <c r="F38" s="279"/>
-      <c r="G38" s="272"/>
-      <c r="H38" s="273"/>
-      <c r="I38" s="275"/>
-      <c r="J38" s="275"/>
-      <c r="K38" s="275"/>
-      <c r="L38" s="275"/>
-      <c r="M38" s="275"/>
-      <c r="N38" s="275"/>
-      <c r="O38" s="275"/>
-      <c r="P38" s="281"/>
-      <c r="Q38" s="281"/>
-      <c r="R38" s="281"/>
-      <c r="S38" s="204"/>
-      <c r="T38" s="87">
+      <c r="A38" s="204"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="293"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="365"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="100">
         <v>24</v>
       </c>
-      <c r="U38" s="88">
+      <c r="U38" s="83">
         <v>25</v>
       </c>
-      <c r="V38" s="89">
+      <c r="V38" s="84">
         <v>26</v>
       </c>
-      <c r="W38" s="89">
+      <c r="W38" s="84">
         <v>27</v>
       </c>
-      <c r="X38" s="89">
+      <c r="X38" s="84">
         <v>28</v>
       </c>
-      <c r="Y38" s="86">
+      <c r="Y38" s="98">
         <v>29</v>
       </c>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="81"/>
+      <c r="Z38" s="195"/>
+      <c r="AA38" s="196"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
@@ -5106,65 +5607,65 @@
       <c r="AL38" s="4"/>
     </row>
     <row r="39" spans="1:38" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="263">
+      <c r="A39" s="203">
         <v>1094200</v>
       </c>
-      <c r="B39" s="264" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="264" t="s">
+      <c r="B39" s="205" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="207">
+        <v>36</v>
+      </c>
+      <c r="E39" s="205" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="265">
-        <v>30</v>
-      </c>
-      <c r="E39" s="264" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="264" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="266">
+      <c r="G39" s="291">
         <v>23</v>
       </c>
-      <c r="H39" s="267"/>
-      <c r="I39" s="260" t="s">
-        <v>65</v>
-      </c>
-      <c r="J39" s="261" t="s">
+      <c r="H39" s="292"/>
+      <c r="I39" s="360" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="360" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="360" t="s">
+        <v>49</v>
+      </c>
+      <c r="L39" s="360" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="360"/>
+      <c r="O39" s="360"/>
+      <c r="P39" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="261" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" s="261" t="s">
-        <v>61</v>
-      </c>
-      <c r="M39" s="260" t="s">
-        <v>61</v>
-      </c>
-      <c r="N39" s="261"/>
-      <c r="O39" s="261"/>
-      <c r="P39" s="268" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q39" s="268">
-        <v>30</v>
-      </c>
-      <c r="R39" s="268">
-        <v>30</v>
-      </c>
-      <c r="S39" s="204"/>
-      <c r="T39" s="94"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="97">
+      <c r="Q39" s="186">
+        <v>36</v>
+      </c>
+      <c r="R39" s="186">
+        <v>36</v>
+      </c>
+      <c r="S39" s="189"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="102">
         <v>1</v>
       </c>
-      <c r="Z39" s="119"/>
-      <c r="AA39" s="120"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="129"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
@@ -5178,45 +5679,45 @@
       <c r="AL39" s="4"/>
     </row>
     <row r="40" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="263"/>
-      <c r="B40" s="264"/>
-      <c r="C40" s="264"/>
-      <c r="D40" s="265"/>
-      <c r="E40" s="264"/>
-      <c r="F40" s="264"/>
-      <c r="G40" s="266"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="260"/>
-      <c r="J40" s="261"/>
-      <c r="K40" s="261"/>
-      <c r="L40" s="261"/>
-      <c r="M40" s="260"/>
-      <c r="N40" s="261"/>
-      <c r="O40" s="261"/>
-      <c r="P40" s="268"/>
-      <c r="Q40" s="268"/>
-      <c r="R40" s="268"/>
-      <c r="S40" s="204"/>
-      <c r="T40" s="98">
+      <c r="A40" s="203"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="291"/>
+      <c r="H40" s="292"/>
+      <c r="I40" s="361"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="361"/>
+      <c r="L40" s="361"/>
+      <c r="M40" s="361"/>
+      <c r="N40" s="361"/>
+      <c r="O40" s="361"/>
+      <c r="P40" s="186"/>
+      <c r="Q40" s="186"/>
+      <c r="R40" s="186"/>
+      <c r="S40" s="189"/>
+      <c r="T40" s="103">
         <v>3</v>
       </c>
-      <c r="U40" s="99">
+      <c r="U40" s="92">
         <v>4</v>
       </c>
-      <c r="V40" s="100">
+      <c r="V40" s="93">
         <v>5</v>
       </c>
-      <c r="W40" s="100">
+      <c r="W40" s="93">
         <v>6</v>
       </c>
-      <c r="X40" s="100">
+      <c r="X40" s="93">
         <v>7</v>
       </c>
-      <c r="Y40" s="101">
+      <c r="Y40" s="104">
         <v>8</v>
       </c>
-      <c r="Z40" s="121"/>
-      <c r="AA40" s="122"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="76"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
@@ -5230,45 +5731,45 @@
       <c r="AL40" s="4"/>
     </row>
     <row r="41" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="263"/>
-      <c r="B41" s="264"/>
-      <c r="C41" s="264"/>
-      <c r="D41" s="265"/>
-      <c r="E41" s="264"/>
-      <c r="F41" s="264"/>
-      <c r="G41" s="266"/>
-      <c r="H41" s="267"/>
-      <c r="I41" s="260"/>
-      <c r="J41" s="261"/>
-      <c r="K41" s="261"/>
-      <c r="L41" s="261"/>
-      <c r="M41" s="260"/>
-      <c r="N41" s="261"/>
-      <c r="O41" s="261"/>
-      <c r="P41" s="268"/>
-      <c r="Q41" s="268"/>
-      <c r="R41" s="268"/>
-      <c r="S41" s="204"/>
-      <c r="T41" s="98">
+      <c r="A41" s="203"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="291"/>
+      <c r="H41" s="292"/>
+      <c r="I41" s="361"/>
+      <c r="J41" s="361"/>
+      <c r="K41" s="361"/>
+      <c r="L41" s="361"/>
+      <c r="M41" s="361"/>
+      <c r="N41" s="361"/>
+      <c r="O41" s="361"/>
+      <c r="P41" s="186"/>
+      <c r="Q41" s="186"/>
+      <c r="R41" s="186"/>
+      <c r="S41" s="189"/>
+      <c r="T41" s="103">
         <v>10</v>
       </c>
-      <c r="U41" s="99">
+      <c r="U41" s="92">
         <v>11</v>
       </c>
-      <c r="V41" s="100">
+      <c r="V41" s="113">
         <v>12</v>
       </c>
-      <c r="W41" s="100">
+      <c r="W41" s="93">
         <v>13</v>
       </c>
-      <c r="X41" s="100">
+      <c r="X41" s="93">
         <v>14</v>
       </c>
-      <c r="Y41" s="101">
+      <c r="Y41" s="104">
         <v>15</v>
       </c>
-      <c r="Z41" s="121"/>
-      <c r="AA41" s="122"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="76"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
@@ -5282,45 +5783,45 @@
       <c r="AL41" s="4"/>
     </row>
     <row r="42" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="263"/>
-      <c r="B42" s="264"/>
-      <c r="C42" s="264"/>
-      <c r="D42" s="265"/>
-      <c r="E42" s="264"/>
-      <c r="F42" s="264"/>
-      <c r="G42" s="266"/>
-      <c r="H42" s="267"/>
-      <c r="I42" s="260"/>
-      <c r="J42" s="261"/>
-      <c r="K42" s="261"/>
-      <c r="L42" s="261"/>
-      <c r="M42" s="260"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="261"/>
-      <c r="P42" s="268"/>
-      <c r="Q42" s="268"/>
-      <c r="R42" s="268"/>
-      <c r="S42" s="204"/>
-      <c r="T42" s="98">
+      <c r="A42" s="203"/>
+      <c r="B42" s="205"/>
+      <c r="C42" s="205"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="291"/>
+      <c r="H42" s="292"/>
+      <c r="I42" s="361"/>
+      <c r="J42" s="361"/>
+      <c r="K42" s="361"/>
+      <c r="L42" s="361"/>
+      <c r="M42" s="361"/>
+      <c r="N42" s="361"/>
+      <c r="O42" s="361"/>
+      <c r="P42" s="186"/>
+      <c r="Q42" s="186"/>
+      <c r="R42" s="186"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="114">
         <v>17</v>
       </c>
-      <c r="U42" s="99">
+      <c r="U42" s="115">
         <v>18</v>
       </c>
-      <c r="V42" s="100">
+      <c r="V42" s="113">
         <v>19</v>
       </c>
-      <c r="W42" s="100">
+      <c r="W42" s="113">
         <v>20</v>
       </c>
-      <c r="X42" s="100">
+      <c r="X42" s="113">
         <v>21</v>
       </c>
-      <c r="Y42" s="101">
+      <c r="Y42" s="104">
         <v>22</v>
       </c>
-      <c r="Z42" s="121"/>
-      <c r="AA42" s="122"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="76"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
@@ -5334,45 +5835,45 @@
       <c r="AL42" s="4"/>
     </row>
     <row r="43" spans="1:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="269"/>
-      <c r="B43" s="270"/>
-      <c r="C43" s="270"/>
-      <c r="D43" s="271"/>
-      <c r="E43" s="270"/>
-      <c r="F43" s="270"/>
-      <c r="G43" s="282"/>
-      <c r="H43" s="283"/>
-      <c r="I43" s="284"/>
-      <c r="J43" s="285"/>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="284"/>
-      <c r="N43" s="285"/>
-      <c r="O43" s="285"/>
-      <c r="P43" s="276"/>
-      <c r="Q43" s="276"/>
-      <c r="R43" s="276"/>
-      <c r="S43" s="205"/>
-      <c r="T43" s="294">
+      <c r="A43" s="204"/>
+      <c r="B43" s="206"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="208"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="293"/>
+      <c r="H43" s="294"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="362"/>
+      <c r="K43" s="362"/>
+      <c r="L43" s="362"/>
+      <c r="M43" s="362"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="187"/>
+      <c r="S43" s="189"/>
+      <c r="T43" s="82">
         <v>24</v>
       </c>
-      <c r="U43" s="287">
+      <c r="U43" s="83">
         <v>25</v>
       </c>
-      <c r="V43" s="290">
+      <c r="V43" s="84">
         <v>26</v>
       </c>
-      <c r="W43" s="290">
+      <c r="W43" s="84">
         <v>27</v>
       </c>
-      <c r="X43" s="290">
+      <c r="X43" s="84">
         <v>28</v>
       </c>
-      <c r="Y43" s="70">
+      <c r="Y43" s="81">
         <v>29</v>
       </c>
-      <c r="Z43" s="123"/>
-      <c r="AA43" s="124"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="76"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
@@ -5386,69 +5887,65 @@
       <c r="AL43" s="4"/>
     </row>
     <row r="44" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="295">
-        <v>1400605</v>
-      </c>
-      <c r="B44" s="296" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="296" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="297">
-        <v>24</v>
-      </c>
-      <c r="E44" s="296" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="298" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="299">
-        <v>24</v>
-      </c>
-      <c r="H44" s="300"/>
-      <c r="I44" s="301" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="301" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="301" t="s">
-        <v>68</v>
-      </c>
-      <c r="L44" s="301" t="s">
-        <v>67</v>
-      </c>
-      <c r="M44" s="301" t="s">
-        <v>67</v>
-      </c>
-      <c r="N44" s="301" t="s">
-        <v>66</v>
-      </c>
-      <c r="O44" s="301"/>
-      <c r="P44" s="298" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="298">
-        <v>24</v>
-      </c>
-      <c r="R44" s="298">
-        <v>24</v>
-      </c>
-      <c r="S44" s="115">
-        <v>20</v>
-      </c>
-      <c r="T44" s="34"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="37">
+      <c r="A44" s="203">
+        <v>1094200</v>
+      </c>
+      <c r="B44" s="205" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="205" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="207">
+        <v>30</v>
+      </c>
+      <c r="E44" s="205" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="205" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="291">
+        <v>23</v>
+      </c>
+      <c r="H44" s="292"/>
+      <c r="I44" s="364" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="361" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44" s="361" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="364" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="361"/>
+      <c r="O44" s="361"/>
+      <c r="P44" s="186" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q44" s="186">
+        <v>30</v>
+      </c>
+      <c r="R44" s="186">
+        <v>30</v>
+      </c>
+      <c r="S44" s="189"/>
+      <c r="T44" s="101"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="102">
         <v>1</v>
       </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
+      <c r="Z44" s="210"/>
+      <c r="AA44" s="211"/>
       <c r="AB44" s="24"/>
       <c r="AC44" s="25"/>
       <c r="AD44" s="25"/>
@@ -5462,45 +5959,45 @@
       <c r="AL44" s="25"/>
     </row>
     <row r="45" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="302"/>
-      <c r="B45" s="303"/>
-      <c r="C45" s="303"/>
-      <c r="D45" s="304"/>
-      <c r="E45" s="303"/>
-      <c r="F45" s="305"/>
-      <c r="G45" s="306"/>
-      <c r="H45" s="307"/>
-      <c r="I45" s="308"/>
-      <c r="J45" s="308"/>
-      <c r="K45" s="308"/>
-      <c r="L45" s="308"/>
-      <c r="M45" s="308"/>
-      <c r="N45" s="308"/>
-      <c r="O45" s="308"/>
-      <c r="P45" s="308"/>
-      <c r="Q45" s="308"/>
-      <c r="R45" s="308"/>
-      <c r="S45" s="166"/>
-      <c r="T45" s="316">
+      <c r="A45" s="203"/>
+      <c r="B45" s="205"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="292"/>
+      <c r="I45" s="364"/>
+      <c r="J45" s="361"/>
+      <c r="K45" s="361"/>
+      <c r="L45" s="361"/>
+      <c r="M45" s="364"/>
+      <c r="N45" s="361"/>
+      <c r="O45" s="361"/>
+      <c r="P45" s="186"/>
+      <c r="Q45" s="186"/>
+      <c r="R45" s="186"/>
+      <c r="S45" s="189"/>
+      <c r="T45" s="103">
         <v>3</v>
       </c>
-      <c r="U45" s="317">
+      <c r="U45" s="92">
         <v>4</v>
       </c>
-      <c r="V45" s="317">
+      <c r="V45" s="93">
         <v>5</v>
       </c>
-      <c r="W45" s="318">
+      <c r="W45" s="93">
         <v>6</v>
       </c>
-      <c r="X45" s="317">
+      <c r="X45" s="93">
         <v>7</v>
       </c>
-      <c r="Y45" s="49">
+      <c r="Y45" s="104">
         <v>8</v>
       </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
+      <c r="Z45" s="212"/>
+      <c r="AA45" s="213"/>
       <c r="AB45" s="24"/>
       <c r="AC45" s="25"/>
       <c r="AD45" s="25"/>
@@ -5514,45 +6011,45 @@
       <c r="AL45" s="25"/>
     </row>
     <row r="46" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="302"/>
-      <c r="B46" s="303"/>
-      <c r="C46" s="303"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="303"/>
-      <c r="F46" s="305"/>
-      <c r="G46" s="306"/>
-      <c r="H46" s="307"/>
-      <c r="I46" s="308"/>
-      <c r="J46" s="308"/>
-      <c r="K46" s="308"/>
-      <c r="L46" s="308"/>
-      <c r="M46" s="308"/>
-      <c r="N46" s="308"/>
-      <c r="O46" s="308"/>
-      <c r="P46" s="308"/>
-      <c r="Q46" s="308"/>
-      <c r="R46" s="308"/>
-      <c r="S46" s="166"/>
-      <c r="T46" s="38">
+      <c r="A46" s="203"/>
+      <c r="B46" s="205"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="205"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="292"/>
+      <c r="I46" s="364"/>
+      <c r="J46" s="361"/>
+      <c r="K46" s="361"/>
+      <c r="L46" s="361"/>
+      <c r="M46" s="364"/>
+      <c r="N46" s="361"/>
+      <c r="O46" s="361"/>
+      <c r="P46" s="186"/>
+      <c r="Q46" s="186"/>
+      <c r="R46" s="186"/>
+      <c r="S46" s="189"/>
+      <c r="T46" s="103">
         <v>10</v>
       </c>
-      <c r="U46" s="39">
+      <c r="U46" s="92">
         <v>11</v>
       </c>
-      <c r="V46" s="39">
+      <c r="V46" s="93">
         <v>12</v>
       </c>
-      <c r="W46" s="50">
+      <c r="W46" s="93">
         <v>13</v>
       </c>
-      <c r="X46" s="41">
+      <c r="X46" s="93">
         <v>14</v>
       </c>
-      <c r="Y46" s="49">
+      <c r="Y46" s="104">
         <v>15</v>
       </c>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
+      <c r="Z46" s="212"/>
+      <c r="AA46" s="213"/>
       <c r="AB46" s="24"/>
       <c r="AC46" s="25"/>
       <c r="AD46" s="25"/>
@@ -5565,46 +6062,46 @@
       <c r="AK46" s="25"/>
       <c r="AL46" s="25"/>
     </row>
-    <row r="47" spans="1:38" s="23" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="302"/>
-      <c r="B47" s="303"/>
-      <c r="C47" s="303"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="303"/>
-      <c r="F47" s="305"/>
-      <c r="G47" s="306"/>
-      <c r="H47" s="307"/>
-      <c r="I47" s="308"/>
-      <c r="J47" s="308"/>
-      <c r="K47" s="308"/>
-      <c r="L47" s="308"/>
-      <c r="M47" s="308"/>
-      <c r="N47" s="308"/>
-      <c r="O47" s="308"/>
-      <c r="P47" s="308"/>
-      <c r="Q47" s="308"/>
-      <c r="R47" s="308"/>
-      <c r="S47" s="166"/>
-      <c r="T47" s="42">
+    <row r="47" spans="1:38" s="23" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="203"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="291"/>
+      <c r="H47" s="292"/>
+      <c r="I47" s="364"/>
+      <c r="J47" s="361"/>
+      <c r="K47" s="361"/>
+      <c r="L47" s="361"/>
+      <c r="M47" s="364"/>
+      <c r="N47" s="361"/>
+      <c r="O47" s="361"/>
+      <c r="P47" s="186"/>
+      <c r="Q47" s="186"/>
+      <c r="R47" s="186"/>
+      <c r="S47" s="189"/>
+      <c r="T47" s="103">
         <v>17</v>
       </c>
-      <c r="U47" s="41">
+      <c r="U47" s="92">
         <v>18</v>
       </c>
-      <c r="V47" s="41">
+      <c r="V47" s="93">
         <v>19</v>
       </c>
-      <c r="W47" s="50">
+      <c r="W47" s="93">
         <v>20</v>
       </c>
-      <c r="X47" s="41">
+      <c r="X47" s="93">
         <v>21</v>
       </c>
-      <c r="Y47" s="49">
+      <c r="Y47" s="104">
         <v>22</v>
       </c>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
+      <c r="Z47" s="212"/>
+      <c r="AA47" s="213"/>
       <c r="AB47" s="24"/>
       <c r="AC47" s="25"/>
       <c r="AD47" s="25"/>
@@ -5618,45 +6115,45 @@
       <c r="AL47" s="25"/>
     </row>
     <row r="48" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="309"/>
-      <c r="B48" s="310"/>
-      <c r="C48" s="310"/>
-      <c r="D48" s="311"/>
-      <c r="E48" s="310"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="313"/>
-      <c r="H48" s="314"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="315"/>
-      <c r="K48" s="315"/>
-      <c r="L48" s="315"/>
-      <c r="M48" s="315"/>
-      <c r="N48" s="315"/>
-      <c r="O48" s="315"/>
-      <c r="P48" s="315"/>
-      <c r="Q48" s="315"/>
-      <c r="R48" s="315"/>
-      <c r="S48" s="167"/>
-      <c r="T48" s="43">
+      <c r="A48" s="366"/>
+      <c r="B48" s="367"/>
+      <c r="C48" s="367"/>
+      <c r="D48" s="368"/>
+      <c r="E48" s="367"/>
+      <c r="F48" s="367"/>
+      <c r="G48" s="373"/>
+      <c r="H48" s="374"/>
+      <c r="I48" s="369"/>
+      <c r="J48" s="378"/>
+      <c r="K48" s="378"/>
+      <c r="L48" s="378"/>
+      <c r="M48" s="369"/>
+      <c r="N48" s="378"/>
+      <c r="O48" s="378"/>
+      <c r="P48" s="379"/>
+      <c r="Q48" s="379"/>
+      <c r="R48" s="379"/>
+      <c r="S48" s="190"/>
+      <c r="T48" s="123">
         <v>24</v>
       </c>
-      <c r="U48" s="51">
+      <c r="U48" s="124">
         <v>25</v>
       </c>
-      <c r="V48" s="44">
+      <c r="V48" s="125">
         <v>26</v>
       </c>
-      <c r="W48" s="44">
+      <c r="W48" s="125">
         <v>27</v>
       </c>
-      <c r="X48" s="44">
+      <c r="X48" s="125">
         <v>28</v>
       </c>
-      <c r="Y48" s="45">
+      <c r="Y48" s="81">
         <v>29</v>
       </c>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
+      <c r="Z48" s="214"/>
+      <c r="AA48" s="215"/>
       <c r="AB48" s="24"/>
       <c r="AC48" s="25"/>
       <c r="AD48" s="25"/>
@@ -5669,34 +6166,68 @@
       <c r="AK48" s="25"/>
       <c r="AL48" s="25"/>
     </row>
-    <row r="49" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114" t="s">
+    <row r="49" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="295">
+        <v>1400605</v>
+      </c>
+      <c r="B49" s="298" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="298" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="32"/>
+      <c r="D49" s="301">
+        <v>24</v>
+      </c>
+      <c r="E49" s="298" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="268" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="306">
+        <v>24</v>
+      </c>
+      <c r="H49" s="307"/>
+      <c r="I49" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="264" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="264" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="264" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="264" t="s">
+        <v>74</v>
+      </c>
+      <c r="N49" s="321" t="s">
+        <v>73</v>
+      </c>
+      <c r="O49" s="264"/>
+      <c r="P49" s="268" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" s="268">
+        <v>24</v>
+      </c>
+      <c r="R49" s="268">
+        <v>24</v>
+      </c>
+      <c r="S49" s="269">
+        <v>24</v>
+      </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="48"/>
       <c r="X49" s="35"/>
-      <c r="Y49" s="37"/>
+      <c r="Y49" s="133">
+        <v>1</v>
+      </c>
       <c r="Z49" s="29"/>
       <c r="AA49" s="29"/>
       <c r="AB49" s="24"/>
@@ -5712,33 +6243,43 @@
       <c r="AL49" s="25"/>
     </row>
     <row r="50" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="49"/>
+      <c r="A50" s="296"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="302"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="304"/>
+      <c r="G50" s="308"/>
+      <c r="H50" s="309"/>
+      <c r="I50" s="265"/>
+      <c r="J50" s="265"/>
+      <c r="K50" s="265"/>
+      <c r="L50" s="265"/>
+      <c r="M50" s="265"/>
+      <c r="N50" s="322"/>
+      <c r="O50" s="265"/>
+      <c r="P50" s="265"/>
+      <c r="Q50" s="265"/>
+      <c r="R50" s="265"/>
+      <c r="S50" s="160"/>
+      <c r="T50" s="116">
+        <v>3</v>
+      </c>
+      <c r="U50" s="117">
+        <v>4</v>
+      </c>
+      <c r="V50" s="117">
+        <v>5</v>
+      </c>
+      <c r="W50" s="118">
+        <v>6</v>
+      </c>
+      <c r="X50" s="117">
+        <v>7</v>
+      </c>
+      <c r="Y50" s="134">
+        <v>8</v>
+      </c>
       <c r="Z50" s="29"/>
       <c r="AA50" s="29"/>
       <c r="AB50" s="24"/>
@@ -5754,49 +6295,43 @@
       <c r="AL50" s="25"/>
     </row>
     <row r="51" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="59"/>
-      <c r="G51" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="S51" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="T51" s="38"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
-      <c r="W51" s="50"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="49"/>
+      <c r="A51" s="296"/>
+      <c r="B51" s="299"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="302"/>
+      <c r="E51" s="299"/>
+      <c r="F51" s="304"/>
+      <c r="G51" s="308"/>
+      <c r="H51" s="309"/>
+      <c r="I51" s="265"/>
+      <c r="J51" s="265"/>
+      <c r="K51" s="265"/>
+      <c r="L51" s="265"/>
+      <c r="M51" s="265"/>
+      <c r="N51" s="322"/>
+      <c r="O51" s="265"/>
+      <c r="P51" s="265"/>
+      <c r="Q51" s="265"/>
+      <c r="R51" s="265"/>
+      <c r="S51" s="160"/>
+      <c r="T51" s="38">
+        <v>10</v>
+      </c>
+      <c r="U51" s="39">
+        <v>11</v>
+      </c>
+      <c r="V51" s="39">
+        <v>12</v>
+      </c>
+      <c r="W51" s="50">
+        <v>13</v>
+      </c>
+      <c r="X51" s="41">
+        <v>14</v>
+      </c>
+      <c r="Y51" s="49">
+        <v>15</v>
+      </c>
       <c r="Z51" s="29"/>
       <c r="AA51" s="29"/>
       <c r="AB51" s="24"/>
@@ -5811,46 +6346,44 @@
       <c r="AK51" s="25"/>
       <c r="AL51" s="25"/>
     </row>
-    <row r="52" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="69" t="s">
+    <row r="52" spans="1:38" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="296"/>
+      <c r="B52" s="299"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="302"/>
+      <c r="E52" s="299"/>
+      <c r="F52" s="304"/>
+      <c r="G52" s="308"/>
+      <c r="H52" s="309"/>
+      <c r="I52" s="265"/>
+      <c r="J52" s="265"/>
+      <c r="K52" s="265"/>
+      <c r="L52" s="265"/>
+      <c r="M52" s="265"/>
+      <c r="N52" s="322"/>
+      <c r="O52" s="265"/>
+      <c r="P52" s="265"/>
+      <c r="Q52" s="265"/>
+      <c r="R52" s="265"/>
+      <c r="S52" s="160"/>
+      <c r="T52" s="42">
         <v>17</v>
       </c>
-      <c r="O52" s="69" t="s">
+      <c r="U52" s="41">
         <v>18</v>
       </c>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="49"/>
+      <c r="V52" s="41">
+        <v>19</v>
+      </c>
+      <c r="W52" s="50">
+        <v>20</v>
+      </c>
+      <c r="X52" s="41">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="49">
+        <v>22</v>
+      </c>
       <c r="Z52" s="29"/>
       <c r="AA52" s="29"/>
       <c r="AB52" s="24"/>
@@ -5865,37 +6398,432 @@
       <c r="AK52" s="25"/>
       <c r="AL52" s="25"/>
     </row>
-    <row r="53" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="319" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" s="320"/>
-      <c r="K54" s="320"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="320"/>
-      <c r="O54" s="320"/>
-      <c r="P54" s="320"/>
-      <c r="Q54" s="321"/>
-      <c r="S54" s="322">
-        <v>152</v>
+    <row r="53" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="297"/>
+      <c r="B53" s="300"/>
+      <c r="C53" s="300"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="300"/>
+      <c r="F53" s="305"/>
+      <c r="G53" s="310"/>
+      <c r="H53" s="311"/>
+      <c r="I53" s="266"/>
+      <c r="J53" s="266"/>
+      <c r="K53" s="266"/>
+      <c r="L53" s="266"/>
+      <c r="M53" s="266"/>
+      <c r="N53" s="323"/>
+      <c r="O53" s="266"/>
+      <c r="P53" s="266"/>
+      <c r="Q53" s="266"/>
+      <c r="R53" s="266"/>
+      <c r="S53" s="161"/>
+      <c r="T53" s="43">
+        <v>24</v>
+      </c>
+      <c r="U53" s="51">
+        <v>25</v>
+      </c>
+      <c r="V53" s="44">
+        <v>26</v>
+      </c>
+      <c r="W53" s="44">
+        <v>27</v>
+      </c>
+      <c r="X53" s="44">
+        <v>28</v>
+      </c>
+      <c r="Y53" s="45">
+        <v>29</v>
+      </c>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+    </row>
+    <row r="54" spans="1:38" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="105"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+    </row>
+    <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="56"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="56"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="49"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+    </row>
+    <row r="56" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="59"/>
+      <c r="G56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="U56" s="163"/>
+      <c r="V56" s="163"/>
+      <c r="W56" s="163"/>
+      <c r="X56" s="163"/>
+      <c r="Y56" s="163"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+    </row>
+    <row r="57" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="137"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57" s="138"/>
+      <c r="Q57" s="138"/>
+      <c r="R57" s="138"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="139" t="s">
+        <v>13</v>
+      </c>
+      <c r="U57" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="V57" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="W57" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="X57" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y57" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+    </row>
+    <row r="58" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="167" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="168"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="175"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="155" t="s">
+        <v>79</v>
+      </c>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="158"/>
+      <c r="P58" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="159">
+        <v>42843</v>
+      </c>
+      <c r="R58" s="159">
+        <v>42844</v>
+      </c>
+      <c r="S58" s="164">
+        <v>4</v>
+      </c>
+      <c r="T58" s="151"/>
+      <c r="U58" s="140"/>
+      <c r="V58" s="141"/>
+      <c r="W58" s="141"/>
+      <c r="X58" s="141"/>
+      <c r="Y58" s="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="169"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="171"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="177"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="160"/>
+      <c r="R59" s="160"/>
+      <c r="S59" s="165"/>
+      <c r="T59" s="150">
+        <v>3</v>
+      </c>
+      <c r="U59" s="144">
+        <v>4</v>
+      </c>
+      <c r="V59" s="143">
+        <v>5</v>
+      </c>
+      <c r="W59" s="144">
+        <v>6</v>
+      </c>
+      <c r="X59" s="144">
+        <v>7</v>
+      </c>
+      <c r="Y59" s="145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="169"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="177"/>
+      <c r="G60" s="181"/>
+      <c r="H60" s="183"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="160"/>
+      <c r="R60" s="160"/>
+      <c r="S60" s="165"/>
+      <c r="T60" s="150">
+        <v>10</v>
+      </c>
+      <c r="U60" s="144">
+        <v>11</v>
+      </c>
+      <c r="V60" s="143">
+        <v>12</v>
+      </c>
+      <c r="W60" s="146">
+        <v>13</v>
+      </c>
+      <c r="X60" s="146">
+        <v>14</v>
+      </c>
+      <c r="Y60" s="145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="169"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="181"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="160"/>
+      <c r="R61" s="160"/>
+      <c r="S61" s="165"/>
+      <c r="T61" s="150">
+        <v>17</v>
+      </c>
+      <c r="U61" s="147">
+        <v>18</v>
+      </c>
+      <c r="V61" s="148">
+        <v>19</v>
+      </c>
+      <c r="W61" s="146">
+        <v>20</v>
+      </c>
+      <c r="X61" s="146">
+        <v>21</v>
+      </c>
+      <c r="Y61" s="145">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="172"/>
+      <c r="B62" s="173"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="173"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="184"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="157"/>
+      <c r="K62" s="157"/>
+      <c r="L62" s="157"/>
+      <c r="M62" s="157"/>
+      <c r="N62" s="157"/>
+      <c r="O62" s="157"/>
+      <c r="P62" s="157"/>
+      <c r="Q62" s="161"/>
+      <c r="R62" s="161"/>
+      <c r="S62" s="166"/>
+      <c r="T62" s="152">
+        <v>24</v>
+      </c>
+      <c r="U62" s="153">
+        <v>25</v>
+      </c>
+      <c r="V62" s="154">
+        <v>26</v>
+      </c>
+      <c r="W62" s="154">
+        <v>27</v>
+      </c>
+      <c r="X62" s="154">
+        <v>28</v>
+      </c>
+      <c r="Y62" s="149">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:38" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="375" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" s="376"/>
+      <c r="K64" s="376"/>
+      <c r="L64" s="376"/>
+      <c r="M64" s="376"/>
+      <c r="N64" s="376"/>
+      <c r="O64" s="376"/>
+      <c r="P64" s="376"/>
+      <c r="Q64" s="377"/>
+      <c r="S64" s="119">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="I54:Q54"/>
-    <mergeCell ref="S29:S43"/>
-    <mergeCell ref="Z24:AA29"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="O39:O43"/>
-    <mergeCell ref="P39:P43"/>
-    <mergeCell ref="Q39:Q43"/>
-    <mergeCell ref="R39:R43"/>
+  <mergeCells count="187">
+    <mergeCell ref="R44:R48"/>
     <mergeCell ref="J29:J33"/>
     <mergeCell ref="K29:K33"/>
     <mergeCell ref="L29:L33"/>
@@ -5905,16 +6833,25 @@
     <mergeCell ref="P29:P33"/>
     <mergeCell ref="Q29:Q33"/>
     <mergeCell ref="R29:R33"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="P39:P43"/>
+    <mergeCell ref="Q39:Q43"/>
+    <mergeCell ref="R39:R43"/>
+    <mergeCell ref="I64:Q64"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M48"/>
+    <mergeCell ref="N44:N48"/>
+    <mergeCell ref="O44:O48"/>
+    <mergeCell ref="P44:P48"/>
+    <mergeCell ref="Q44:Q48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="I44:I48"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B29:B33"/>
     <mergeCell ref="C29:C33"/>
@@ -5923,33 +6860,25 @@
     <mergeCell ref="I29:I33"/>
     <mergeCell ref="F29:F33"/>
     <mergeCell ref="G29:H33"/>
-    <mergeCell ref="G39:H43"/>
+    <mergeCell ref="G44:H48"/>
     <mergeCell ref="J24:J28"/>
     <mergeCell ref="K24:K28"/>
     <mergeCell ref="L24:L28"/>
     <mergeCell ref="N24:N28"/>
     <mergeCell ref="O24:O28"/>
-    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="M39:M43"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O39:O43"/>
     <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="O34:O38"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="M44:M48"/>
-    <mergeCell ref="N44:N48"/>
-    <mergeCell ref="O44:O48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="N49:N53"/>
+    <mergeCell ref="O49:O53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="L49:L53"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="E10:E11"/>
@@ -5964,19 +6893,19 @@
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D19:D23"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="G44:H48"/>
-    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="G49:H53"/>
+    <mergeCell ref="I49:I53"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="A24:A28"/>
@@ -5986,20 +6915,20 @@
     <mergeCell ref="E24:E28"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="G19:H23"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="I19:I23"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:H38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="G39:H43"/>
     <mergeCell ref="I24:I28"/>
-    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="J49:J53"/>
     <mergeCell ref="Z10:AA13"/>
-    <mergeCell ref="P44:P48"/>
-    <mergeCell ref="Q44:Q48"/>
-    <mergeCell ref="R44:R48"/>
-    <mergeCell ref="S44:S48"/>
-    <mergeCell ref="Z39:AA43"/>
+    <mergeCell ref="P49:P53"/>
+    <mergeCell ref="Q49:Q53"/>
+    <mergeCell ref="R49:R53"/>
+    <mergeCell ref="S49:S53"/>
+    <mergeCell ref="Z44:AA48"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="P10:P11"/>
@@ -6009,6 +6938,14 @@
     <mergeCell ref="Q24:Q28"/>
     <mergeCell ref="R24:R28"/>
     <mergeCell ref="S14:S28"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="G34:H38"/>
     <mergeCell ref="Z9:AA9"/>
     <mergeCell ref="Z14:AA18"/>
     <mergeCell ref="P3:W3"/>
@@ -6033,17 +6970,52 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="G14:H18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="S29:S48"/>
+    <mergeCell ref="Z24:AA28"/>
+    <mergeCell ref="Z34:AA38"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="N58:N62"/>
+    <mergeCell ref="O58:O62"/>
+    <mergeCell ref="P58:P62"/>
+    <mergeCell ref="Q58:Q62"/>
+    <mergeCell ref="R58:R62"/>
+    <mergeCell ref="T56:Y56"/>
+    <mergeCell ref="S58:S62"/>
+    <mergeCell ref="A58:D62"/>
+    <mergeCell ref="E58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="M58:M62"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O58:P62">
+      <formula1>Actividad</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1"/>
   </hyperlinks>
